--- a/shared_data/HALLMARK_TNFA_SIGNALING_VIA_NFKB_metacoreOverlaps.xlsx
+++ b/shared_data/HALLMARK_TNFA_SIGNALING_VIA_NFKB_metacoreOverlaps.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\ABRF_GBIRG_OntologyStudy\shared_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\shared_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B82AC-C3FF-4797-8FC6-5C91DA5CC3FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B19467-06CF-4639-98DF-69C508235A0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10275" xr2:uid="{0D3C4FA4-0FAF-4778-8515-6A87BEA60BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -551,14 +554,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69A0758-7318-4AFB-AD4D-C04E795A3559}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,403 +578,403 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1">
-        <v>4.6170000000000002E-33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4029999999999999E-73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
-        <v>6.9939999999999997E-22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.215E-64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
-        <v>5.0389999999999997E-19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3300000000000001E-62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
-        <v>1.9499999999999999E-16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.4469999999999997E-61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
-        <v>3.1890000000000001E-16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4000000000000001E-60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>5.0570000000000001E-16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6370000000000001E-60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
-        <v>5.58E-16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.782E-59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>8.7070000000000003E-16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.782E-59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
-        <v>1.1940000000000001E-15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0590000000000001E-57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
-        <v>1.7800000000000001E-15</v>
+        <v>1.734E-56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>6.3850000000000001E-20</v>
+        <v>4.6170000000000002E-33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>2.0139999999999998E-18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.9939999999999997E-22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>3.6429999999999998E-18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.3850000000000001E-20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
-        <v>5.5909999999999995E-16</v>
+        <v>2.8190000000000002E-19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>5.9399999999999999E-16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.0389999999999997E-19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>3.701E-15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0139999999999998E-18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0930000000000001E-14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.6429999999999998E-18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1">
-        <v>4.38E-14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0659999999999999E-17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
-        <v>4.38E-14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.0389999999999999E-17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
-        <v>4.6419999999999999E-14</v>
+        <v>5.7839999999999994E-17</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>1.4029999999999999E-73</v>
+        <v>1.9499999999999999E-16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>1.215E-64</v>
+        <v>3.1890000000000001E-16</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>2.3300000000000001E-62</v>
+        <v>5.0570000000000001E-16</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>5.4469999999999997E-61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.58E-16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>1.4000000000000001E-60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.5909999999999995E-16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1">
-        <v>1.6370000000000001E-60</v>
+        <v>5.9399999999999999E-16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1">
-        <v>1.782E-59</v>
+        <v>8.7070000000000003E-16</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1">
-        <v>1.782E-59</v>
+        <v>1.1940000000000001E-15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1">
-        <v>2.0590000000000001E-57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7800000000000001E-15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>1.734E-56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.701E-15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
-        <v>2.8190000000000002E-19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0930000000000001E-14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1">
-        <v>2.0659999999999999E-17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6540000000000001E-14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1">
-        <v>3.0389999999999999E-17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6540000000000001E-14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1">
-        <v>5.7839999999999994E-17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.38E-14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C36" s="1">
-        <v>1.6540000000000001E-14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.38E-14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1">
-        <v>1.6540000000000001E-14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.6419999999999999E-14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -979,7 +985,7 @@
         <v>6.3740000000000002E-14</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -990,7 +996,7 @@
         <v>2.24E-13</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>3.8499999999999998E-13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>7.294E-13</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1023,7 +1029,7 @@
         <v>4.8150000000000003E-11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>4.9170000000000003E-11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>1.297E-9</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1056,7 +1062,7 @@
         <v>2.2999999999999999E-9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>1.2520000000000001E-8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>2.5399999999999999E-8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>4.5179999999999998E-8</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>7.0500000000000003E-8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>7.0500000000000003E-8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1123,6 +1129,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C51" xr:uid="{437356C3-27B4-483A-9871-F9F78BD3301D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PathwayMaps"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:C51">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>